--- a/500all/speech_level/speeches_CHRG-114hhrg97727.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97727.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,27 +52,18 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy. Good morning. The Judiciary Committee will come to order. And the Chair is authorized to declare a recess of the Committee at any time.    We welcome everyone to this morning's hearing on Oversight of the Executive Office for Immigration Review. And uncharacteristically, I am not going to begin by recognizing myself for an opening statement. I am going to introduce our witness, and say welcome to him and ask if he would please rise so I can administer an oath. And then I would properly introduce you.    Do you swear the testimony you are about to give is the truth, the whole truth, and nothing but the truth, so help you God?    The record will reflect that the witness answered in the affirmative.    This morning's witness is Mr. Juan Osuna, who was appointed as the Director of the Executive Office of Immigration Review in May of 2011, served as acting director from December 2010 to May 2011. Prior to that, Mr. Osuna was at the Department of Justice as an associate deputy attorney general from May of 2009 until June of 2010. He was a deputy assistant attorney general in the Civil Division, Office of Immigration Litigation, from September of 2008 until May of 2009. He served as chairman of the Board of Immigration Appeals. He also served as acting chairman and acting vice chairman. He holds a bachelor of arts from George Washington University, a law degree from the Washington College of Law at American University, and a master of arts degree in law and international affairs from the American University School of International Service.    Mr. Osuna, we welcome you. Things will be a little bit different this morning, given the nature of the day. And I know that my colleagues on both sides want to be here and many of them will come, but they may come at unusual times. So we are going to recognize you for your opening statement first, and then the Members will do their opening statements, and then we'll go to questioning.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Osuna</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Osuna. Thank you, Mr. Chairman. Mr. Chairman, Representative Lofgren, and other Members of the Subcommittee, thank you for the opportunity to speak with you today about the Department of Justice's Executive Office for Immigration Review, or EOIR. EOIR's role in the removal process is to hear the cases of individuals charged with violating our immigration laws and to decide which of those individuals should be removed from the United States and which are eligible for relief or protection from removal. The agency carries its mission out through our core of 250 immigration judges in 58 courts around the country and our appellate tribunal, the Board of Immigration Appeals. Each of our cases begins when the Department of Homeland Security files a charging document with one of our immigration courts.    Among the many challenges facing the immigration courts, the largest is our growing pending caseload. There are more than 450,000 cases pending in immigration courts around the country. This is an all-time high. This backlog grew in recent years due to budget cuts when the agency was severely limited in hiring immigration judges and staff to replace those who left the agency. While the immigration judge corps was shrinking, enforcement continued and the courts would continue to receive new cases, resulting in continuously increasing caseloads. This was exacerbated by the border influx that began in the summer of last year. From July 2014, the time EOIR started tracking the southwest border crossers, until September 30, 2015, more than 100,000 cases had been filed in the immigration courts nationwide.    We are taking steps to increase our capacity to adjudicate cases through a vigorous hiring effort, and hiring immigration judges is my first priority. I am pleased to report significant progress on this front and greatly appreciate Congress' support for our efforts by providing the funding necessary to augment our judge corps. Over the past year, 23 new immigration judges have entered on duty, and as of this week, the Attorney General had selected another 37 individuals to serve as immigration judges after a thorough and rigorous hiring process at EOIR and within the Department.    These individuals are now undergoing the required background and security checks before they can start hearing cases. Many more immigration judge candidates are going through the final stages of the review process at the Department before they can be recommended to the Attorney General for selection. These new judges will be arriving in immigration courts throughout the country in the coming months, and they will have a very, very positive effect on the pending caseloads, enabling the courts to begin to correct the imbalance between the incoming caseload and the number of judges available to adjudicate it. Again, thank you for your support for these much needed resources.    Within the immigration court system, certain cases are prioritized for adjudication. Those cases involving individuals detained by the Department of Homeland Security have traditionally been the agency's highest priority. Not only do these cases often involve individuals convicted of serious crimes, but they also implicate the individual's liberty interests.    In July of 2014, EOIR added the cases of unaccompanied children and families who were not detained to the existing priority caseload. This prioritization was in direct response to the Administration's effort in the summer of 2014 and beyond to address the factors that brought a high number of people across the Texas border. EOIR is processing these cases as quickly as possible, consistent with due process.    I want to touch on a few other initiatives that, in addition to the hiring of new judges and staff, will help EOIR improve the efficiency and effectiveness of the court system. First, deployment of new video teleconferencing equipment into the immigration courts is nearly complete. These VTC units are important because they are a force multiplier, allowing immigration judges to conduct hearings remotely, thereby allowing them to save on travel costs and time and simply to hear more cases. By February, every immigration courtroom in the country will have a new VTC unit. We are taking steps to enhance accessibility to the court system by increasing efficiency and combating fraud. EOIR has its departmental working group designed to fight Notarios and other unscrupulous practitioners who undermine the integrity of the system. The group's efforts have had a tangible positive effect, including assisting the prosecution of a number of fraudsters and Notarios around the country over the last few years.    While we help put unscrupulous practitioners out of business, it is important that we also make it easier for legitimate service providers to step in. On October 1, we published three regulations designed to make it easier for legal services to reach individuals who are in removal proceedings, including many detained individuals. We expect that these programs will help improve the quality of representation in immigration court.    Finally, the EOIR continues to expand its highly successful legal access program. This program, which is now active in 37 sites around the country, helps the court process function more efficiently and effectively while providing information to people facing removal.    Mr. Chairman, Representative Lofgren, these are some of the initiatives that we have underway. They are positioning, as well, for the agency to have a very positive 2016.    Thank you, and I am pleased to answer any questions.</t>
   </si>
   <si>
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman, for holding this hearing.    Thank you, Director Osuna, for being here today. You know, the 700,000 Texans that I represent who are certainly concerned about the impacts of illegal immigration in this country and what many see as an environment of lawlessness created by this Administration when it comes to the enforcement of our immigration laws and, frankly, the inefficiency of our immigration system. And one of the things that highlights that is a fact that was related by the Chairman, the fact that there are approximately 459,000 immigration cases waiting for action right now.    And, you know, it would appear that that type of backlog of cases really amounts to de facto amnesty, because a lot of individuals that are in this country, perhaps illegally, to remain here without any repercussion as their cases are stuck in administrative limbo. So I am anxious to hear some of your testimony today about your plans to reduce that backlog.    One of the cases that I want to ask about in terms of contributing to a backlog is one of the judges in the Houston immigration court, Judge Mimi Yam--are you familiar with Judge Yam?</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Thank you very much, Mr. Director, and thank you for your service. I would like to explore a line of questioning, because I think it's important to discern the responsibilities of your office versus the State Department and how we can be helpful, the Congress, and particularly this Committee. Let me follow a line of questioning of my colleague from Texas regarding the lengthy backlog and to cite, again, the 450,000 cases of which are backlogged, and an individual on the nondetained immigration docket might have to wait up to 4 years.    Certainly, I am from the Southern District of Texas, and I know the immigration courts there. This delay means that people with potential claims for immigration relief remain in limbo throughout the pendency of the immigration court process. This affects vulnerable populations such as children, asylum seekers, and other immigrants hoping to obtain immigration relief, and they are in the legal system because they are trying to go into court. What solution do you propose to resolve the staggering immigration court backlog, and how can Members of Congress, in particular, help the EOIR office?    And I have a series of questions. I'm going to let you briefly answer those, but I'd like to go onto some other questions.</t>
   </si>
   <si>
@@ -211,9 +199,6 @@
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman.    Director Osuna, I appreciate your testimony and the fact that you are here. We've watched this grow over the years that it's not a big surprise to me to see these numbers grow the way they have. But I wonder if you can break this down for us a little bit.    I'm looking at numbers in your testimony. It says that there's a 457,106 case, I'll call it a backlog case, and it has increased more 298,171 since 2011. One, I can't exactly determine whether that's--if I can match up fiscal years. But could you tell me roughly how many additional cases have accrued on an annual basis over the last 4 or 5 years?</t>
   </si>
   <si>
@@ -244,9 +229,6 @@
     <t xml:space="preserve">    Mr. Gowdy. Thank you, the gentleman from Ohio--from Iowa. Excuse me.    The Chair will now recognize the gentleman from Michigan, Mr. Conyers.</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman. And I thank my colleague, Ms. Lofgren, for letting me go in front of her.</t>
   </si>
   <si>
@@ -295,9 +277,6 @@
     <t>412619</t>
   </si>
   <si>
-    <t>Ken Buck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Buck. Thank you, Mr. Chairman. I yield my time to the gentleman from Texas.</t>
   </si>
   <si>
@@ -383,9 +362,6 @@
   </si>
   <si>
     <t>400245</t>
-  </si>
-  <si>
-    <t>Zoe Lofgren</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman, and Mr. Osuna. I'm sorry I was late. I was at a meeting also on an immigration matter.    I would ask unanimous consent to put my full statement in the record.</t>
@@ -955,11 +931,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -979,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1005,13 +977,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1031,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1057,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1083,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1109,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1135,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1161,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1187,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1213,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1239,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1265,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1291,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1317,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1343,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1369,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1397,11 +1339,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1421,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1447,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1473,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1499,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1525,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1551,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1577,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1603,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1629,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1655,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1681,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1707,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1733,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1759,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1785,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1811,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1837,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1863,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1889,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1915,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1941,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1967,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1993,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2019,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2045,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2071,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2097,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2125,11 +2011,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2149,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2175,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2201,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s">
-        <v>65</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2227,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2253,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>65</v>
-      </c>
-      <c r="H52" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2279,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2305,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" t="s">
-        <v>65</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2331,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2357,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" t="s">
-        <v>65</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2385,11 +2251,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2409,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2435,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2461,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2487,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2515,11 +2371,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2539,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2565,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2593,11 +2443,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2617,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2643,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2669,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2695,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2721,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2747,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2773,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2801,11 +2635,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2825,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2853,11 +2683,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2877,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2903,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2929,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2955,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2981,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3007,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3033,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3059,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3085,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3111,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3137,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3163,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3189,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3215,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3241,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3267,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3293,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3319,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3345,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3371,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3397,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3423,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3449,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3475,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3501,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3529,11 +3307,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3553,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
-      </c>
-      <c r="G102" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3581,11 +3355,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3605,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
-      </c>
-      <c r="G104" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3633,11 +3403,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3657,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>122</v>
-      </c>
-      <c r="G106" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3685,11 +3451,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3709,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
-      </c>
-      <c r="G108" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3735,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3761,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
+        <v>115</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
         <v>122</v>
-      </c>
-      <c r="G110" t="s">
-        <v>123</v>
-      </c>
-      <c r="H110" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3787,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3813,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>122</v>
-      </c>
-      <c r="G112" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3839,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3865,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>122</v>
-      </c>
-      <c r="G114" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3891,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3917,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>122</v>
-      </c>
-      <c r="G116" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3943,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3969,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>122</v>
-      </c>
-      <c r="G118" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3997,11 +3739,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4021,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4049,11 +3787,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4073,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4101,11 +3835,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4125,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4153,11 +3883,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4177,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4205,11 +3931,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4229,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4257,11 +3979,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4281,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4309,11 +4027,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4333,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4361,11 +4075,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4385,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4413,11 +4123,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4437,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4465,11 +4171,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4489,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4517,11 +4219,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4541,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4569,11 +4267,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4593,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4621,11 +4315,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4645,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4673,11 +4363,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4697,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4725,11 +4411,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4749,13 +4433,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4777,11 +4459,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4801,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4829,11 +4507,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4853,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4881,11 +4555,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4905,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4933,11 +4603,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4957,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4985,11 +4651,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5009,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>122</v>
-      </c>
-      <c r="G158" t="s">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5037,11 +4699,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5061,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97727.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97727.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,18 +55,33 @@
     <t>412473</t>
   </si>
   <si>
+    <t>Gowdy</t>
+  </si>
+  <si>
+    <t>Trey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gowdy. Good morning. The Judiciary Committee will come to order. And the Chair is authorized to declare a recess of the Committee at any time.    We welcome everyone to this morning's hearing on Oversight of the Executive Office for Immigration Review. And uncharacteristically, I am not going to begin by recognizing myself for an opening statement. I am going to introduce our witness, and say welcome to him and ask if he would please rise so I can administer an oath. And then I would properly introduce you.    Do you swear the testimony you are about to give is the truth, the whole truth, and nothing but the truth, so help you God?    The record will reflect that the witness answered in the affirmative.    This morning's witness is Mr. Juan Osuna, who was appointed as the Director of the Executive Office of Immigration Review in May of 2011, served as acting director from December 2010 to May 2011. Prior to that, Mr. Osuna was at the Department of Justice as an associate deputy attorney general from May of 2009 until June of 2010. He was a deputy assistant attorney general in the Civil Division, Office of Immigration Litigation, from September of 2008 until May of 2009. He served as chairman of the Board of Immigration Appeals. He also served as acting chairman and acting vice chairman. He holds a bachelor of arts from George Washington University, a law degree from the Washington College of Law at American University, and a master of arts degree in law and international affairs from the American University School of International Service.    Mr. Osuna, we welcome you. Things will be a little bit different this morning, given the nature of the day. And I know that my colleagues on both sides want to be here and many of them will come, but they may come at unusual times. So we are going to recognize you for your opening statement first, and then the Members will do their opening statements, and then we'll go to questioning.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Osuna</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Osuna. Thank you, Mr. Chairman. Mr. Chairman, Representative Lofgren, and other Members of the Subcommittee, thank you for the opportunity to speak with you today about the Department of Justice's Executive Office for Immigration Review, or EOIR. EOIR's role in the removal process is to hear the cases of individuals charged with violating our immigration laws and to decide which of those individuals should be removed from the United States and which are eligible for relief or protection from removal. The agency carries its mission out through our core of 250 immigration judges in 58 courts around the country and our appellate tribunal, the Board of Immigration Appeals. Each of our cases begins when the Department of Homeland Security files a charging document with one of our immigration courts.    Among the many challenges facing the immigration courts, the largest is our growing pending caseload. There are more than 450,000 cases pending in immigration courts around the country. This is an all-time high. This backlog grew in recent years due to budget cuts when the agency was severely limited in hiring immigration judges and staff to replace those who left the agency. While the immigration judge corps was shrinking, enforcement continued and the courts would continue to receive new cases, resulting in continuously increasing caseloads. This was exacerbated by the border influx that began in the summer of last year. From July 2014, the time EOIR started tracking the southwest border crossers, until September 30, 2015, more than 100,000 cases had been filed in the immigration courts nationwide.    We are taking steps to increase our capacity to adjudicate cases through a vigorous hiring effort, and hiring immigration judges is my first priority. I am pleased to report significant progress on this front and greatly appreciate Congress' support for our efforts by providing the funding necessary to augment our judge corps. Over the past year, 23 new immigration judges have entered on duty, and as of this week, the Attorney General had selected another 37 individuals to serve as immigration judges after a thorough and rigorous hiring process at EOIR and within the Department.    These individuals are now undergoing the required background and security checks before they can start hearing cases. Many more immigration judge candidates are going through the final stages of the review process at the Department before they can be recommended to the Attorney General for selection. These new judges will be arriving in immigration courts throughout the country in the coming months, and they will have a very, very positive effect on the pending caseloads, enabling the courts to begin to correct the imbalance between the incoming caseload and the number of judges available to adjudicate it. Again, thank you for your support for these much needed resources.    Within the immigration court system, certain cases are prioritized for adjudication. Those cases involving individuals detained by the Department of Homeland Security have traditionally been the agency's highest priority. Not only do these cases often involve individuals convicted of serious crimes, but they also implicate the individual's liberty interests.    In July of 2014, EOIR added the cases of unaccompanied children and families who were not detained to the existing priority caseload. This prioritization was in direct response to the Administration's effort in the summer of 2014 and beyond to address the factors that brought a high number of people across the Texas border. EOIR is processing these cases as quickly as possible, consistent with due process.    I want to touch on a few other initiatives that, in addition to the hiring of new judges and staff, will help EOIR improve the efficiency and effectiveness of the court system. First, deployment of new video teleconferencing equipment into the immigration courts is nearly complete. These VTC units are important because they are a force multiplier, allowing immigration judges to conduct hearings remotely, thereby allowing them to save on travel costs and time and simply to hear more cases. By February, every immigration courtroom in the country will have a new VTC unit. We are taking steps to enhance accessibility to the court system by increasing efficiency and combating fraud. EOIR has its departmental working group designed to fight Notarios and other unscrupulous practitioners who undermine the integrity of the system. The group's efforts have had a tangible positive effect, including assisting the prosecution of a number of fraudsters and Notarios around the country over the last few years.    While we help put unscrupulous practitioners out of business, it is important that we also make it easier for legitimate service providers to step in. On October 1, we published three regulations designed to make it easier for legal services to reach individuals who are in removal proceedings, including many detained individuals. We expect that these programs will help improve the quality of representation in immigration court.    Finally, the EOIR continues to expand its highly successful legal access program. This program, which is now active in 37 sites around the country, helps the court process function more efficiently and effectively while providing information to people facing removal.    Mr. Chairman, Representative Lofgren, these are some of the initiatives that we have underway. They are positioning, as well, for the agency to have a very positive 2016.    Thank you, and I am pleased to answer any questions.</t>
   </si>
   <si>
     <t>412653</t>
   </si>
   <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman, for holding this hearing.    Thank you, Director Osuna, for being here today. You know, the 700,000 Texans that I represent who are certainly concerned about the impacts of illegal immigration in this country and what many see as an environment of lawlessness created by this Administration when it comes to the enforcement of our immigration laws and, frankly, the inefficiency of our immigration system. And one of the things that highlights that is a fact that was related by the Chairman, the fact that there are approximately 459,000 immigration cases waiting for action right now.    And, you know, it would appear that that type of backlog of cases really amounts to de facto amnesty, because a lot of individuals that are in this country, perhaps illegally, to remain here without any repercussion as their cases are stuck in administrative limbo. So I am anxious to hear some of your testimony today about your plans to reduce that backlog.    One of the cases that I want to ask about in terms of contributing to a backlog is one of the judges in the Houston immigration court, Judge Mimi Yam--are you familiar with Judge Yam?</t>
   </si>
   <si>
@@ -115,6 +133,12 @@
     <t>400199</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Thank you very much, Mr. Director, and thank you for your service. I would like to explore a line of questioning, because I think it's important to discern the responsibilities of your office versus the State Department and how we can be helpful, the Congress, and particularly this Committee. Let me follow a line of questioning of my colleague from Texas regarding the lengthy backlog and to cite, again, the 450,000 cases of which are backlogged, and an individual on the nondetained immigration docket might have to wait up to 4 years.    Certainly, I am from the Southern District of Texas, and I know the immigration courts there. This delay means that people with potential claims for immigration relief remain in limbo throughout the pendency of the immigration court process. This affects vulnerable populations such as children, asylum seekers, and other immigrants hoping to obtain immigration relief, and they are in the legal system because they are trying to go into court. What solution do you propose to resolve the staggering immigration court backlog, and how can Members of Congress, in particular, help the EOIR office?    And I have a series of questions. I'm going to let you briefly answer those, but I'd like to go onto some other questions.</t>
   </si>
   <si>
@@ -199,6 +223,12 @@
     <t>400220</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman.    Director Osuna, I appreciate your testimony and the fact that you are here. We've watched this grow over the years that it's not a big surprise to me to see these numbers grow the way they have. But I wonder if you can break this down for us a little bit.    I'm looking at numbers in your testimony. It says that there's a 457,106 case, I'll call it a backlog case, and it has increased more 298,171 since 2011. One, I can't exactly determine whether that's--if I can match up fiscal years. But could you tell me roughly how many additional cases have accrued on an annual basis over the last 4 or 5 years?</t>
   </si>
   <si>
@@ -229,6 +259,9 @@
     <t xml:space="preserve">    Mr. Gowdy. Thank you, the gentleman from Ohio--from Iowa. Excuse me.    The Chair will now recognize the gentleman from Michigan, Mr. Conyers.</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman. And I thank my colleague, Ms. Lofgren, for letting me go in front of her.</t>
   </si>
   <si>
@@ -277,6 +310,12 @@
     <t>412619</t>
   </si>
   <si>
+    <t>Buck</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Buck. Thank you, Mr. Chairman. I yield my time to the gentleman from Texas.</t>
   </si>
   <si>
@@ -362,6 +401,12 @@
   </si>
   <si>
     <t>400245</t>
+  </si>
+  <si>
+    <t>Lofgren</t>
+  </si>
+  <si>
+    <t>Zoe</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman, and Mr. Osuna. I'm sorry I was late. I was at a meeting also on an immigration matter.    I would ask unanimous consent to put my full statement in the record.</t>
@@ -881,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -889,7 +934,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,3821 +956,4475 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
+        <v>39</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
+        <v>39</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G48" t="s">
+        <v>69</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G50" t="s">
+        <v>69</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G52" t="s">
+        <v>69</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G54" t="s">
+        <v>69</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G56" t="s">
+        <v>69</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G59" t="s">
+        <v>39</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>38</v>
+      </c>
+      <c r="G63" t="s">
+        <v>39</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>81</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G74" t="s">
+        <v>98</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s">
+        <v>20</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G78" t="s">
+        <v>20</v>
+      </c>
       <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s">
+        <v>20</v>
+      </c>
       <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G84" t="s">
+        <v>20</v>
+      </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s">
+        <v>20</v>
+      </c>
       <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G94" t="s">
+        <v>20</v>
+      </c>
       <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G96" t="s">
+        <v>20</v>
+      </c>
       <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
       <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G100" t="s">
+        <v>20</v>
+      </c>
       <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>115</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G102" t="s">
+        <v>129</v>
+      </c>
       <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>115</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G104" t="s">
+        <v>129</v>
+      </c>
       <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>115</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G106" t="s">
+        <v>129</v>
+      </c>
       <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>115</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G108" t="s">
+        <v>129</v>
+      </c>
       <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>115</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G110" t="s">
+        <v>129</v>
+      </c>
       <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>115</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G112" t="s">
+        <v>129</v>
+      </c>
       <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>115</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G114" t="s">
+        <v>129</v>
+      </c>
       <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>115</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G116" t="s">
+        <v>129</v>
+      </c>
       <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>115</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G118" t="s">
+        <v>129</v>
+      </c>
       <c r="H118" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
       <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
       <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
       <c r="H141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
       <c r="H149" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
       <c r="H153" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
       <c r="H155" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>115</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G158" t="s">
+        <v>129</v>
+      </c>
       <c r="H158" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I158" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>172</v>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97727.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97727.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412473</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Gowdy</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>412653</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Ratcliffe</t>
   </si>
   <si>
@@ -401,6 +410,9 @@
   </si>
   <si>
     <t>400245</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Lofgren</t>
@@ -926,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,7 +946,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,4472 +971,4808 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G50" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G52" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G54" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G56" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>81</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>84</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>81</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>81</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>84</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>81</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>84</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>81</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>84</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>81</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>84</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>81</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G74" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H76" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H82" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H86" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G88" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I88" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I90" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G92" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H92" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I92" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G94" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H94" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H96" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>17</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H98" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I98" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>17</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G100" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H100" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I100" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G102" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G104" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G106" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I106" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G108" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>17</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G110" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H110" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s">
-        <v>17</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G112" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H112" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s">
-        <v>17</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G114" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H114" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I114" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G116" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H116" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I116" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s">
-        <v>17</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G118" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H118" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I118" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s">
-        <v>17</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s">
-        <v>17</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s">
-        <v>17</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s">
-        <v>17</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>19</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s">
-        <v>17</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>19</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s">
-        <v>17</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s">
-        <v>17</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>19</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I133" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s">
-        <v>17</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s">
-        <v>17</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>19</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s">
-        <v>17</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s">
-        <v>17</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>19</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s">
-        <v>17</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s">
-        <v>17</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s">
-        <v>17</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I149" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s">
-        <v>17</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s">
-        <v>17</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I153" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s">
-        <v>17</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I155" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" t="s">
-        <v>17</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>19</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G158" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H158" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I158" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J158" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" t="s">
-        <v>17</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>187</v>
+        <v>18</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
